--- a/db/excel/news-setting.v1.xlsx
+++ b/db/excel/news-setting.v1.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FAA375-0BD5-4E99-B53C-76C82B661B3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="17175" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="17175" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$F$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -63,27 +62,6 @@
     <t>PRIMARY KEY AUTOINCREMENT NOT NULL</t>
   </si>
   <si>
-    <t>func</t>
-  </si>
-  <si>
-    <t>Chức năng sử dụng</t>
-  </si>
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>file_type</t>
-  </si>
-  <si>
-    <t>file_date</t>
-  </si>
-  <si>
-    <t>file_size</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -93,45 +71,15 @@
     <t>status</t>
   </si>
   <si>
-    <t>trạng thái hiệu lực của file</t>
-  </si>
-  <si>
-    <t>user upload file này</t>
-  </si>
-  <si>
     <t>thời gian tạo hoặc sửa file này cuối cùng</t>
   </si>
   <si>
-    <t>kiểu của file này để truy vấn</t>
-  </si>
-  <si>
     <t>tên đầy đủ của file ghi từ đường dẫn gốc</t>
   </si>
   <si>
-    <t>tên của file không có đường dẫn</t>
-  </si>
-  <si>
-    <t>kích cỡ của file này tính bằng byte</t>
-  </si>
-  <si>
-    <t>ip của thiết bị upload lên</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>thiết bị sử dụng để upload lên</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
-    <t>default 1, unique(url)</t>
-  </si>
-  <si>
-    <t>ngày GOC của file này</t>
-  </si>
-  <si>
     <t>user upload group nay</t>
   </si>
   <si>
@@ -150,12 +98,6 @@
     <t>Noi dung nhap lieu ban dau</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>tieu de ban dau</t>
-  </si>
-  <si>
     <t>group_id</t>
   </si>
   <si>
@@ -172,39 +114,12 @@
   </si>
   <si>
     <t>Mã news duy nhất tự tăng</t>
-  </si>
-  <si>
-    <t>share_status</t>
-  </si>
-  <si>
-    <t>Chia se cho ai</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>Mã public key của user</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>Chữ ký của user</t>
-  </si>
-  <si>
-    <t>news_share</t>
-  </si>
-  <si>
-    <t>news_type</t>
-  </si>
-  <si>
-    <t>Kiểu tin tức là tin không ảnh, có ảnh hoặc tin có link (gia trị 0, 1, 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -248,7 +163,7 @@
       <name val="Monaco"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +185,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,18 +470,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -829,7 +735,7 @@
     <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1130,11 +1036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1169,7 +1075,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1186,13 +1092,13 @@
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1200,13 +1106,13 @@
     </row>
     <row r="4" spans="1:6" ht="15.75">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1214,417 +1120,111 @@
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="15.75">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="15.75">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="15.75">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="15.75">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="15.75">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="15.75">
-      <c r="A13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="15.75">
-      <c r="A14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="15.75">
-      <c r="A15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="15.75">
-      <c r="A16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" ht="15.75">
-      <c r="A17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="15.75">
-      <c r="A18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" ht="15.75">
-      <c r="A19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15.75">
-      <c r="A32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/db/excel/news-setting.v1.xlsx
+++ b/db/excel/news-setting.v1.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE4F18-85C4-4B9F-AA0C-B02199DA3A07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="17175" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -53,9 +49,6 @@
     <t>options</t>
   </si>
   <si>
-    <t>order_1</t>
-  </si>
-  <si>
     <t>Mã file duy nhất tự tăng</t>
   </si>
   <si>
@@ -80,18 +73,9 @@
     <t>url</t>
   </si>
   <si>
-    <t>user upload group nay</t>
-  </si>
-  <si>
     <t>thời gian tạo</t>
   </si>
   <si>
-    <t>trạng thái hiệu lực của group</t>
-  </si>
-  <si>
-    <t>default 1, unique(user,time)</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -101,25 +85,34 @@
     <t>group_id</t>
   </si>
   <si>
-    <t>Mã nhom file load len tu sinh theo user-time key voi sys</t>
-  </si>
-  <si>
-    <t>Hệ thống sử dụng:group_id,func,dir/file_name,file_type,file_date,file_size/ip,user,time,status</t>
-  </si>
-  <si>
     <t>news_files</t>
   </si>
   <si>
     <t>news</t>
   </si>
   <si>
-    <t>Mã news duy nhất tự tăng</t>
+    <t>trạng thái hiệu lực của tin</t>
+  </si>
+  <si>
+    <t>Mã tin duy nhất tự tăng</t>
+  </si>
+  <si>
+    <t>Mã nhom tin để liên kết với bảng news_files</t>
+  </si>
+  <si>
+    <t>user upload tin nay</t>
+  </si>
+  <si>
+    <t>Mã nhom tin để liên kết với bảng news</t>
+  </si>
+  <si>
+    <t>default 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -172,12 +165,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -185,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,11 +465,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -735,7 +728,7 @@
     <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -793,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,9 +819,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,6 +871,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1036,24 +1063,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="102" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5">
+    <row r="1" spans="1:5" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1069,162 +1095,159 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="15.75">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="15.75">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
-      <c r="A2" t="s">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="15.75">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="15.75">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="15.75">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="15.75">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="15.75">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="15.75">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F5"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
